--- a/Output/TotalCourse.xlsx
+++ b/Output/TotalCourse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="17">
   <si>
     <t>COURSE ARE :</t>
   </si>

--- a/Output/TotalCourse.xlsx
+++ b/Output/TotalCourse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="17">
   <si>
     <t>COURSE ARE :</t>
   </si>
